--- a/misc_files/DF.xlsx
+++ b/misc_files/DF.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dmcknight\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rachelwitner/Documents/Centauri/fall part time/conjunction_analysis/misc_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3001B6A-13FA-4666-A9AC-8DABD383608B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D4C348-1203-4E4C-AB2A-1DAE31130330}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8F846837-A779-4358-8850-D8BB83EFF7B0}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23260" windowHeight="12580" xr2:uid="{8F846837-A779-4358-8850-D8BB83EFF7B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -58,7 +59,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,11 +99,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -125,16 +127,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>115216</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109446</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>116777</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>319977</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>86360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -156,8 +158,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3772816" y="754380"/>
-          <a:ext cx="7926361" cy="4137660"/>
+          <a:off x="9080500" y="2204946"/>
+          <a:ext cx="5374577" cy="2643914"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -468,13 +470,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF96341-709F-42C0-80FF-DE2AB92ABF1F}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:A96"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +490,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>500</v>
       </c>
@@ -510,8 +512,12 @@
         <f>+B3/$B$3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" s="4">
+        <f>$B$3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>+A3+25</f>
         <v>525</v>
@@ -523,8 +529,12 @@
         <f t="shared" ref="C4:C49" si="0">+B4/$B$3</f>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D4" s="4">
+        <f t="shared" ref="D4:D49" si="1">$B$3/B4</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>+A4+25</f>
         <v>550</v>
@@ -536,10 +546,14 @@
         <f t="shared" si="0"/>
         <v>0.22222222222222224</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D5" s="4">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <f t="shared" ref="A5:A68" si="1">+A5+25</f>
+        <f t="shared" ref="A6:A49" si="2">+A5+25</f>
         <v>575</v>
       </c>
       <c r="B6" s="3">
@@ -549,10 +563,14 @@
         <f t="shared" si="0"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D6" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>600</v>
       </c>
       <c r="B7" s="3">
@@ -562,10 +580,14 @@
         <f t="shared" si="0"/>
         <v>0.11111111111111112</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D7" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>625</v>
       </c>
       <c r="B8" s="3">
@@ -575,10 +597,14 @@
         <f t="shared" si="0"/>
         <v>9.9999999999999992E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D8" s="4">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>650</v>
       </c>
       <c r="B9" s="3">
@@ -588,10 +614,14 @@
         <f t="shared" si="0"/>
         <v>7.7777777777777779E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D9" s="4">
+        <f t="shared" si="1"/>
+        <v>12.857142857142856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>675</v>
       </c>
       <c r="B10" s="3">
@@ -601,10 +631,14 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
       <c r="B11" s="3">
@@ -614,10 +648,14 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555559E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D11" s="4">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>725</v>
       </c>
       <c r="B12" s="3">
@@ -627,10 +665,14 @@
         <f t="shared" si="0"/>
         <v>4.4444444444444446E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D12" s="4">
+        <f t="shared" si="1"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>750</v>
       </c>
       <c r="B13" s="3">
@@ -640,10 +682,14 @@
         <f t="shared" si="0"/>
         <v>3.3333333333333333E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D13" s="4">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>775</v>
       </c>
       <c r="B14" s="3">
@@ -653,10 +699,14 @@
         <f t="shared" si="0"/>
         <v>2.2222222222222223E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>800</v>
       </c>
       <c r="B15" s="3">
@@ -666,10 +716,14 @@
         <f t="shared" si="0"/>
         <v>1.1111111111111112E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D15" s="4">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>825</v>
       </c>
       <c r="B16" s="3">
@@ -679,10 +733,14 @@
         <f t="shared" si="0"/>
         <v>1.0555555555555556E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" s="4">
+        <f t="shared" si="1"/>
+        <v>94.73684210526315</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>850</v>
       </c>
       <c r="B17" s="3">
@@ -692,10 +750,14 @@
         <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" s="4">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>875</v>
       </c>
       <c r="B18" s="3">
@@ -705,10 +767,14 @@
         <f t="shared" si="0"/>
         <v>9.4444444444444445E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>105.88235294117646</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>900</v>
       </c>
       <c r="B19" s="3">
@@ -718,10 +784,14 @@
         <f t="shared" si="0"/>
         <v>8.8888888888888889E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" s="4">
+        <f t="shared" si="1"/>
+        <v>112.49999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>925</v>
       </c>
       <c r="B20" s="3">
@@ -731,10 +801,14 @@
         <f t="shared" si="0"/>
         <v>8.611111111111111E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" s="4">
+        <f t="shared" si="1"/>
+        <v>116.12903225806451</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>950</v>
       </c>
       <c r="B21" s="3">
@@ -744,10 +818,14 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333332E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="4">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>975</v>
       </c>
       <c r="B22" s="3">
@@ -757,10 +835,14 @@
         <f t="shared" si="0"/>
         <v>8.0555555555555571E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>124.13793103448275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="B23" s="3">
@@ -770,10 +852,14 @@
         <f t="shared" si="0"/>
         <v>7.7777777777777776E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" s="4">
+        <f t="shared" si="1"/>
+        <v>128.57142857142856</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1025</v>
       </c>
       <c r="B24" s="3">
@@ -783,10 +869,14 @@
         <f t="shared" si="0"/>
         <v>7.4999999999999997E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" s="4">
+        <f t="shared" si="1"/>
+        <v>133.33333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1050</v>
       </c>
       <c r="B25" s="3">
@@ -796,10 +886,14 @@
         <f t="shared" si="0"/>
         <v>7.2222222222222219E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" s="4">
+        <f t="shared" si="1"/>
+        <v>138.46153846153845</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1075</v>
       </c>
       <c r="B26" s="3">
@@ -809,10 +903,14 @@
         <f t="shared" si="0"/>
         <v>6.9444444444444449E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
       <c r="B27" s="3">
@@ -822,10 +920,14 @@
         <f t="shared" si="0"/>
         <v>6.6666666666666662E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1125</v>
       </c>
       <c r="B28" s="3">
@@ -835,10 +937,14 @@
         <f t="shared" si="0"/>
         <v>6.5222222222222227E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <f t="shared" si="1"/>
+        <v>153.3219761499148</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1150</v>
       </c>
       <c r="B29" s="3">
@@ -848,10 +954,14 @@
         <f t="shared" si="0"/>
         <v>6.3888888888888884E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <f t="shared" si="1"/>
+        <v>156.52173913043478</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1175</v>
       </c>
       <c r="B30" s="3">
@@ -861,10 +971,14 @@
         <f t="shared" si="0"/>
         <v>6.2555555555555559E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>159.85790408525753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="B31" s="3">
@@ -874,10 +988,14 @@
         <f t="shared" si="0"/>
         <v>6.1111111111111114E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <f t="shared" si="1"/>
+        <v>163.63636363636363</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1225</v>
       </c>
       <c r="B32" s="3">
@@ -887,10 +1005,14 @@
         <f t="shared" si="0"/>
         <v>5.966666666666667E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <f t="shared" si="1"/>
+        <v>167.5977653631285</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1250</v>
       </c>
       <c r="B33" s="3">
@@ -900,10 +1022,14 @@
         <f t="shared" si="0"/>
         <v>5.8333333333333327E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <f t="shared" si="1"/>
+        <v>171.42857142857144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1275</v>
       </c>
       <c r="B34" s="3">
@@ -913,10 +1039,14 @@
         <f t="shared" si="0"/>
         <v>5.7000000000000002E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <f t="shared" si="1"/>
+        <v>175.43859649122805</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1300</v>
       </c>
       <c r="B35" s="3">
@@ -926,10 +1056,14 @@
         <f t="shared" si="0"/>
         <v>5.5555555555555558E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <f t="shared" si="1"/>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1325</v>
       </c>
       <c r="B36" s="3">
@@ -939,10 +1073,14 @@
         <f t="shared" si="0"/>
         <v>5.4111111111111113E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <f t="shared" si="1"/>
+        <v>184.80492813141683</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1350</v>
       </c>
       <c r="B37" s="3">
@@ -952,10 +1090,14 @@
         <f t="shared" si="0"/>
         <v>5.2777777777777779E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
+        <f t="shared" si="1"/>
+        <v>189.4736842105263</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1375</v>
       </c>
       <c r="B38" s="3">
@@ -965,10 +1107,14 @@
         <f t="shared" si="0"/>
         <v>5.1333333333333335E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" s="4">
+        <f t="shared" si="1"/>
+        <v>194.80519480519479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1400</v>
       </c>
       <c r="B39" s="3">
@@ -978,10 +1124,14 @@
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" s="4">
+        <f t="shared" si="1"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1425</v>
       </c>
       <c r="B40" s="3">
@@ -991,10 +1141,14 @@
         <f t="shared" si="0"/>
         <v>4.8555555555555548E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" s="4">
+        <f t="shared" si="1"/>
+        <v>205.9496567505721</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1450</v>
       </c>
       <c r="B41" s="3">
@@ -1004,10 +1158,14 @@
         <f t="shared" si="0"/>
         <v>4.7222222222222223E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" s="4">
+        <f t="shared" si="1"/>
+        <v>211.76470588235293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1475</v>
       </c>
       <c r="B42" s="3">
@@ -1017,10 +1175,14 @@
         <f t="shared" si="0"/>
         <v>4.5888888888888889E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" s="4">
+        <f t="shared" si="1"/>
+        <v>217.91767554479421</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1500</v>
       </c>
       <c r="B43" s="3">
@@ -1030,10 +1192,14 @@
         <f t="shared" si="0"/>
         <v>4.4444444444444444E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" s="4">
+        <f t="shared" si="1"/>
+        <v>224.99999999999997</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1525</v>
       </c>
       <c r="B44" s="3">
@@ -1043,10 +1209,14 @@
         <f t="shared" si="0"/>
         <v>4.333333333333334E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" s="4">
+        <f t="shared" si="1"/>
+        <v>230.76923076923075</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1550</v>
       </c>
       <c r="B45" s="3">
@@ -1056,10 +1226,14 @@
         <f t="shared" si="0"/>
         <v>4.2444444444444439E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" s="4">
+        <f t="shared" si="1"/>
+        <v>235.60209424083772</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1575</v>
       </c>
       <c r="B46" s="3">
@@ -1069,10 +1243,14 @@
         <f t="shared" si="0"/>
         <v>4.1666666666666666E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" s="4">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
       <c r="B47" s="3">
@@ -1082,10 +1260,14 @@
         <f t="shared" si="0"/>
         <v>4.0888888888888884E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" s="4">
+        <f t="shared" si="1"/>
+        <v>244.56521739130437</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1625</v>
       </c>
       <c r="B48" s="3">
@@ -1095,10 +1277,14 @@
         <f t="shared" si="0"/>
         <v>3.966666666666667E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" s="4">
+        <f t="shared" si="1"/>
+        <v>252.10084033613444</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="B49" s="3">
@@ -1107,6 +1293,10 @@
       <c r="C49" s="1">
         <f t="shared" si="0"/>
         <v>3.8888888888888888E-3</v>
+      </c>
+      <c r="D49" s="4">
+        <f t="shared" si="1"/>
+        <v>257.14285714285711</v>
       </c>
     </row>
   </sheetData>
